--- a/v0.7.1/StructureDefinition-Task.xlsx
+++ b/v0.7.1/StructureDefinition-Task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A task to be performed</t>
@@ -1801,10 +1805,10 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1873,10 +1877,10 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>73</v>
@@ -1887,10 +1891,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1901,7 +1905,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1910,19 +1914,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1972,13 +1976,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -2001,10 +2005,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2015,7 +2019,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -2024,16 +2028,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2084,19 +2088,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -2113,10 +2117,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2127,28 +2131,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2198,19 +2202,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -2227,10 +2231,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2241,7 +2245,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2253,16 +2257,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2288,13 +2292,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2312,19 +2316,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2341,21 +2345,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2367,16 +2371,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2426,25 +2430,25 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>73</v>
@@ -2455,14 +2459,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2481,16 +2485,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2540,7 +2544,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2558,7 +2562,7 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>73</v>
@@ -2569,14 +2573,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2595,16 +2599,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2654,7 +2658,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2666,13 +2670,13 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>73</v>
@@ -2683,14 +2687,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2703,25 +2707,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2770,7 +2774,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2782,13 +2786,13 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>73</v>
@@ -2799,10 +2803,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2810,7 +2814,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>75</v>
@@ -2825,13 +2829,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2882,7 +2886,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2894,16 +2898,16 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>73</v>
@@ -2911,10 +2915,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2925,7 +2929,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2934,20 +2938,20 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2996,25 +3000,25 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -3025,10 +3029,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3039,7 +3043,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -3048,20 +3052,20 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -3110,25 +3114,25 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -3139,10 +3143,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3162,16 +3166,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3222,7 +3226,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -3234,13 +3238,13 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -3251,10 +3255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3265,7 +3269,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3274,20 +3278,20 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -3336,25 +3340,25 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>73</v>
@@ -3365,10 +3369,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3388,22 +3392,22 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3452,7 +3456,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3464,13 +3468,13 @@
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -3481,10 +3485,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3492,32 +3496,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -3542,13 +3546,13 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>73</v>
@@ -3566,28 +3570,28 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>73</v>
@@ -3595,10 +3599,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3609,7 +3613,7 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3618,19 +3622,19 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3656,10 +3660,10 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>73</v>
@@ -3680,25 +3684,25 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
@@ -3709,10 +3713,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3723,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3732,20 +3736,20 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3770,10 +3774,10 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>73</v>
@@ -3794,25 +3798,25 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3823,10 +3827,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3834,10 +3838,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3846,19 +3850,19 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3884,13 +3888,13 @@
         <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3908,28 +3912,28 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>73</v>
@@ -3937,10 +3941,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3951,7 +3955,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3963,23 +3967,23 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>73</v>
@@ -4000,13 +4004,13 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -4024,28 +4028,28 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>73</v>
@@ -4053,10 +4057,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4067,7 +4071,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -4076,19 +4080,19 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4114,13 +4118,13 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
@@ -4138,28 +4142,28 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>73</v>
@@ -4167,10 +4171,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4181,7 +4185,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -4190,16 +4194,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4250,25 +4254,25 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4279,10 +4283,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4293,7 +4297,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -4302,22 +4306,22 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4366,28 +4370,28 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>73</v>
@@ -4395,21 +4399,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -4418,20 +4422,20 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4480,28 +4484,28 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>73</v>
@@ -4509,10 +4513,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4523,7 +4527,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4532,20 +4536,20 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4594,28 +4598,28 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>73</v>
@@ -4623,10 +4627,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4637,7 +4641,7 @@
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4646,16 +4650,16 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4706,28 +4710,28 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>73</v>
@@ -4735,21 +4739,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4761,17 +4765,17 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4820,28 +4824,28 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>73</v>
@@ -4849,21 +4853,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4872,20 +4876,20 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4934,25 +4938,25 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4963,10 +4967,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4977,7 +4981,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4986,20 +4990,20 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -5048,28 +5052,28 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>73</v>
@@ -5077,10 +5081,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5103,17 +5107,17 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -5138,13 +5142,13 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>73</v>
@@ -5162,7 +5166,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5174,16 +5178,16 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>73</v>
@@ -5191,21 +5195,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -5214,22 +5218,22 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5278,28 +5282,28 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>73</v>
@@ -5307,10 +5311,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5321,7 +5325,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -5330,20 +5334,20 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5392,28 +5396,28 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>73</v>
@@ -5421,10 +5425,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5435,7 +5439,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5447,16 +5451,16 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5482,10 +5486,10 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
@@ -5506,39 +5510,39 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5549,7 +5553,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5561,16 +5565,16 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5620,28 +5624,28 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>73</v>
@@ -5649,10 +5653,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5675,13 +5679,13 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5732,7 +5736,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5744,27 +5748,27 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5787,13 +5791,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5844,7 +5848,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5856,13 +5860,13 @@
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>73</v>
@@ -5873,14 +5877,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5899,16 +5903,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5958,7 +5962,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5970,13 +5974,13 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>73</v>
@@ -5987,10 +5991,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6001,7 +6005,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -6013,17 +6017,17 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -6072,25 +6076,25 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>73</v>
@@ -6101,10 +6105,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6115,7 +6119,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -6127,13 +6131,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6184,13 +6188,13 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
@@ -6202,7 +6206,7 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>73</v>
@@ -6213,14 +6217,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6239,16 +6243,16 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6298,7 +6302,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6310,13 +6314,13 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6327,14 +6331,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6347,25 +6351,25 @@
         <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6414,7 +6418,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6426,13 +6430,13 @@
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6443,10 +6447,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6457,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6469,17 +6473,17 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6528,25 +6532,25 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
@@ -6557,10 +6561,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6571,7 +6575,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6583,19 +6587,19 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6644,25 +6648,25 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6673,10 +6677,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6699,13 +6703,13 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6756,7 +6760,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6768,13 +6772,13 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>73</v>
@@ -6785,14 +6789,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6811,17 +6815,17 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6870,7 +6874,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6882,13 +6886,13 @@
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>73</v>
@@ -6899,10 +6903,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6913,7 +6917,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6925,13 +6929,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6982,13 +6986,13 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
@@ -7000,7 +7004,7 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>73</v>
@@ -7011,14 +7015,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7037,16 +7041,16 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7096,7 +7100,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -7108,13 +7112,13 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>73</v>
@@ -7125,14 +7129,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7145,25 +7149,25 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -7212,7 +7216,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7224,13 +7228,13 @@
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7241,21 +7245,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7267,19 +7271,19 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7304,10 +7308,10 @@
         <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7328,25 +7332,25 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>73</v>
@@ -7357,10 +7361,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7368,10 +7372,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -7383,13 +7387,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7440,25 +7444,25 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>73</v>
@@ -7469,10 +7473,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7495,17 +7499,17 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7554,7 +7558,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7566,13 +7570,13 @@
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>73</v>
@@ -7583,10 +7587,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7597,7 +7601,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -7609,13 +7613,13 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7666,13 +7670,13 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
@@ -7684,7 +7688,7 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>73</v>
@@ -7695,14 +7699,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7721,16 +7725,16 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7780,7 +7784,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7792,13 +7796,13 @@
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>73</v>
@@ -7809,14 +7813,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7829,25 +7833,25 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>73</v>
@@ -7896,7 +7900,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7908,13 +7912,13 @@
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -7925,21 +7929,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>73</v>
@@ -7951,17 +7955,17 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -7986,10 +7990,10 @@
         <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -8010,25 +8014,25 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -8039,10 +8043,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8050,10 +8054,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>73</v>
@@ -8065,17 +8069,17 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>73</v>
@@ -8124,25 +8128,25 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>73</v>
